--- a/biology/Botanique/Mérèse/Mérèse.xlsx
+++ b/biology/Botanique/Mérèse/Mérèse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9r%C3%A8se</t>
+          <t>Mérèse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La mérèse (appelée parfois meresis en latin) correspond au mode de croissance par multiplication du nombre de cellules (par mitoses successives) chez les végétaux.
 Ce phénomène se retrouve principalement au niveau des méristèmes des apex.
